--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,51 +40,48 @@
     <t>name</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
     <t>worst</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
     <t>wrong</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>fucked</t>
+    <t>hate</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>scary</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
     <t>behind</t>
   </si>
   <si>
+    <t>seriously</t>
+  </si>
+  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -94,10 +91,13 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
+    <t>better</t>
   </si>
   <si>
     <t>interesting</t>
@@ -106,15 +106,21 @@
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
@@ -125,6 +131,12 @@
   </si>
   <si>
     <t>media</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>watching</t>
   </si>
   <si>
     <t>watch</t>
@@ -494,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,10 +514,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -563,13 +575,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -581,19 +593,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -605,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -613,37 +625,37 @@
         <v>9</v>
       </c>
       <c r="B4">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4">
         <v>0.9</v>
       </c>
-      <c r="C4">
-        <v>27</v>
-      </c>
-      <c r="D4">
-        <v>27</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4">
-        <v>0.8333333333333334</v>
-      </c>
       <c r="L4">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -663,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8846153846153846</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C5">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="D5">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -681,19 +693,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L5">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -705,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -713,13 +725,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8666666666666667</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -731,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>0.7719298245614035</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -755,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -763,13 +775,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8484848484848485</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C7">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -781,19 +793,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>0.6666666666666666</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -805,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -813,13 +825,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8235294117647058</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -834,16 +846,16 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.5862068965517241</v>
+        <v>0.6133333333333333</v>
       </c>
       <c r="L8">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="M8">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -855,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -863,13 +875,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7894736842105263</v>
+        <v>0.7</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -881,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.5666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="L9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -905,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -913,13 +925,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7058823529411765</v>
+        <v>0.6</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -931,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.2033898305084746</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="L10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -955,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -963,13 +975,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.65</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -981,19 +993,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.1420765027322404</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L11">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1005,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>942</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1013,13 +1025,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6086956521739131</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1031,19 +1043,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.08480565371024736</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="L12">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M12">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1055,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>259</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1063,13 +1075,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5652173913043478</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C13">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1081,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.04814814814814815</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1105,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>514</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1113,13 +1125,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1131,19 +1143,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.03765060240963856</v>
+        <v>0.1493624772313297</v>
       </c>
       <c r="L14">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="M14">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1155,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>639</v>
+        <v>934</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1163,13 +1175,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1181,19 +1193,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>0.03246753246753246</v>
+        <v>0.0812720848056537</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1205,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>596</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1213,37 +1225,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4468085106382979</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C16">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>21</v>
       </c>
-      <c r="D16">
-        <v>21</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>26</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K16">
-        <v>0.02707373271889401</v>
+        <v>0.07592592592592592</v>
       </c>
       <c r="L16">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M16">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1255,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1689</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1263,75 +1275,179 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3428571428571429</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>65</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <v>0.05873493975903615</v>
+      </c>
+      <c r="L17">
+        <v>39</v>
+      </c>
+      <c r="M17">
+        <v>39</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>0.0380952380952381</v>
+      </c>
+      <c r="L18">
         <v>12</v>
       </c>
-      <c r="D17">
+      <c r="M18">
         <v>12</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>23</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17">
-        <v>0.0204865556978233</v>
-      </c>
-      <c r="L17">
-        <v>16</v>
-      </c>
-      <c r="M17">
-        <v>16</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.2307692307692308</v>
-      </c>
-      <c r="C18">
-        <v>18</v>
-      </c>
-      <c r="D18">
-        <v>18</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>60</v>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19">
+        <v>0.03519061583577713</v>
+      </c>
+      <c r="L19">
+        <v>12</v>
+      </c>
+      <c r="M19">
+        <v>12</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20">
+        <v>0.03084415584415584</v>
+      </c>
+      <c r="L20">
+        <v>19</v>
+      </c>
+      <c r="M20">
+        <v>19</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21">
+        <v>0.02707373271889401</v>
+      </c>
+      <c r="L21">
+        <v>47</v>
+      </c>
+      <c r="M21">
+        <v>47</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22">
+        <v>0.02176696542893726</v>
+      </c>
+      <c r="L22">
+        <v>17</v>
+      </c>
+      <c r="M22">
+        <v>17</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>764</v>
       </c>
     </row>
   </sheetData>
